--- a/cad_user/LOT13IMEIGUARD.xlsx
+++ b/cad_user/LOT13IMEIGUARD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DEAC_TI_SW\Users\DEAC_TI_SERVER\Desktop\IMEIGUARD\cad_user\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\deac_ti_sw\Users\DEAC_TI_SERVER\Desktop\IMEIGUARD\cad_user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9A083B-1288-436A-A9A9-8CCBA1339229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17659403-8E9B-481C-92F4-6E609E5E5F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Respostas ao formulário 1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -90,6 +90,84 @@
   </si>
   <si>
     <t>NATAN FLAVIO PEDROSA</t>
+  </si>
+  <si>
+    <t>wandersonpcivil@gmail.com</t>
+  </si>
+  <si>
+    <t>WANDERSON SOUZA PANTOJA</t>
+  </si>
+  <si>
+    <t>DELEGACIA DE ACARÁ/PA</t>
+  </si>
+  <si>
+    <t>EPC</t>
+  </si>
+  <si>
+    <t>claubittenlobato@gmail.com</t>
+  </si>
+  <si>
+    <t>CLAUDINEY BITTENCOURT LOBATO</t>
+  </si>
+  <si>
+    <t>claubittenlobato@hotmail.com</t>
+  </si>
+  <si>
+    <t>SECCIONAL URBANA DO GUAMA</t>
+  </si>
+  <si>
+    <t>baiaodepol@gmail.com</t>
+  </si>
+  <si>
+    <t>alberto.junior@policiacivil.pa.gov.br</t>
+  </si>
+  <si>
+    <t>ipcfillippe.lima@gmail.com</t>
+  </si>
+  <si>
+    <t>FILLIPPE DUARTE LIMA</t>
+  </si>
+  <si>
+    <t>CURRALINHO/PA</t>
+  </si>
+  <si>
+    <t>fillippe.lima@policiacivil.pa.gov.br</t>
+  </si>
+  <si>
+    <t>BAIAO</t>
+  </si>
+  <si>
+    <t>ALBERTO SOUZA CORREA JUNIOR</t>
+  </si>
+  <si>
+    <t>yuricordeiro18@gmail.com</t>
+  </si>
+  <si>
+    <t>iagoalexandregba@yahoo.com.br</t>
+  </si>
+  <si>
+    <t>IAGO ALEXANDRE MAIA DE AZEVEDO</t>
+  </si>
+  <si>
+    <t>CASTANHAL</t>
+  </si>
+  <si>
+    <t>iago.azevedo@policiacivil.pa.gov.br</t>
+  </si>
+  <si>
+    <t>ingridbrito506@gmail.com</t>
+  </si>
+  <si>
+    <t>ingrid.brito@policiacivil.pa.gov.br</t>
+  </si>
+  <si>
+    <t>YURI VIEIRA CORDEIRO</t>
+  </si>
+  <si>
+    <t>INGRID KARINA GOMES DE BRITO</t>
+  </si>
+  <si>
+    <t>12 SECCIONAL DE CASTANHAL</t>
   </si>
 </sst>
 </file>
@@ -110,6 +188,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -126,7 +205,6 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -169,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -177,7 +255,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="22" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,7 +495,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -410,7 +505,7 @@
     <col min="3" max="3" width="29.28515625" customWidth="1"/>
     <col min="4" max="7" width="18.85546875" customWidth="1"/>
     <col min="8" max="8" width="43.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.7109375" customWidth="1"/>
+    <col min="9" max="9" width="42.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="15" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -451,7 +546,7 @@
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
     </row>
-    <row r="2" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
@@ -483,15 +578,221 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:15" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:15" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="1:15" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:15" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:15" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>45477.804432870369</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="7">
+        <v>57212411</v>
+      </c>
+      <c r="E3" s="7">
+        <v>96522496291</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>45478.361817129633</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="10">
+        <v>5859107</v>
+      </c>
+      <c r="E4" s="10">
+        <v>57794788287</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>45481.450023148151</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="7">
+        <v>5940057</v>
+      </c>
+      <c r="E5" s="7">
+        <v>94681392200</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>45481.711944444447</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="7">
+        <v>5979678</v>
+      </c>
+      <c r="E6" s="6">
+        <v>8665163603</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>45483.44127314815</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="7">
+        <v>5966912</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1115760246</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>45483.443425925929</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="7">
+        <v>5966728</v>
+      </c>
+      <c r="E8" s="6">
+        <v>8979556411</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>45483.445243055554</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="7">
+        <v>5966725</v>
+      </c>
+      <c r="E9" s="7">
+        <v>10557454409</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
     <row r="10" spans="1:15" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:15" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:15" ht="12.75" x14ac:dyDescent="0.2"/>
